--- a/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 4,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>637,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,38%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,61; 1,46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 3,06</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,98</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 1,52</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,78; 1163,64</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 0,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 0,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 0,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 1,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,99; 122,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,72; 118,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,99; 72,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,97; 240,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,0%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 0,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,11; 476,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,76; 707,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,14; 67,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,01; 378,65</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,68%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,53; 114,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,62; 200,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,72; 355,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,69; 217,87</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 0,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,54; 77,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 147,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; 98,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; 125,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>415,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>112,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>135,96%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,51; 1,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 2,68</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 1,86</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 1,27</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 4,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,21; 993,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>-10,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>637,3%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>133,38%</t>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,46</t>
+          <t>-1,5; 0,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,06</t>
+          <t>-1,4; 0,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,98</t>
+          <t>-1,39; 0,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,52</t>
+          <t>-1,26; 1,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,99; 122,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,72; 118,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-82,99; 72,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,78; 1163,64</t>
+          <t>-66,55; 281,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,47%</t>
+          <t>110,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-53,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,97</t>
+          <t>-0,57; 1,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,93</t>
+          <t>-0,21; 2,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,37</t>
+          <t>-2,66; 0,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,26</t>
+          <t>-0,65; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 122,16</t>
+          <t>-50,11; 476,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,72; 118,18</t>
+          <t>-30,76; 707,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 72,85</t>
+          <t>-88,14; 67,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,97; 240,29</t>
+          <t>-63,3; 349,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,42%</t>
+          <t>-25,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,51%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,2%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>18,37%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,79</t>
+          <t>-1,45; 0,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,26</t>
+          <t>-1,01; 1,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,33</t>
+          <t>-0,29; 2,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,32</t>
+          <t>-0,72; 0,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 476,99</t>
+          <t>-74,53; 114,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 707,21</t>
+          <t>-59,62; 200,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-88,14; 67,82</t>
+          <t>-21,72; 355,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 378,65</t>
+          <t>-50,52; 221,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,15</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,71</t>
+          <t>-0,48; 0,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,17</t>
+          <t>-0,08; 1,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,38</t>
+          <t>-0,47; 0,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,93</t>
+          <t>-0,34; 0,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-74,53; 114,18</t>
+          <t>-34,54; 77,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 200,61</t>
+          <t>-7,82; 147,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 355,58</t>
+          <t>-31,63; 98,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 217,87</t>
+          <t>-29,94; 121,99</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>44,3%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>32,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 0,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 1,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 0,81</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 0,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-34,54; 77,61</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 147,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-31,63; 98,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; 125,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,18</t>
+          <t>-0,68; 1,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,68</t>
+          <t>0,31; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,86</t>
+          <t>-0,56; 1,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,27</t>
+          <t>-0,17; 1,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,39; —</t>
+          <t>-33,87; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 993,66</t>
+          <t>-49,9; 1302,3</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,97</t>
+          <t>-1,34; 1,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,93</t>
+          <t>-1,45; 0,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,37</t>
+          <t>-1,44; 0,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,32</t>
+          <t>-1,43; 1,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 122,16</t>
+          <t>-64,59; 134,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,72; 118,18</t>
+          <t>-68,61; 136,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 72,85</t>
+          <t>-81,97; 76,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 281,86</t>
+          <t>-68,09; 232,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,79</t>
+          <t>-0,59; 1,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,26</t>
+          <t>-0,26; 2,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,33</t>
+          <t>-2,66; 0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,21</t>
+          <t>-0,71; 1,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 476,99</t>
+          <t>-54,34; 486,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 707,21</t>
+          <t>-32,9; 604,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-88,14; 67,82</t>
+          <t>-91,28; 52,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,3; 349,27</t>
+          <t>-61,45; 399,62</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,71</t>
+          <t>-1,46; 0,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,17</t>
+          <t>-0,95; 1,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,38</t>
+          <t>-0,06; 2,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,91</t>
+          <t>-0,68; 0,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,53; 114,18</t>
+          <t>-73,48; 97,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 200,61</t>
+          <t>-57,93; 196,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 355,58</t>
+          <t>-13,29; 353,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 221,5</t>
+          <t>-50,82; 168,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,59</t>
+          <t>-0,65; 0,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,05</t>
+          <t>-0,15; 1,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>-0,44; 0,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,7</t>
+          <t>-0,38; 0,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 77,61</t>
+          <t>-45,7; 69,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 147,41</t>
+          <t>-13,4; 143,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 98,4</t>
+          <t>-30,54; 85,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 121,99</t>
+          <t>-31,39; 116,68</t>
         </is>
       </c>
     </row>
